--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master Thesis Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30E6D0B-B14E-4423-ABEC-D53ED66918A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124EF6F5-16B9-4401-888B-FEEE06DA4B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8948" uniqueCount="8917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8918" uniqueCount="8887">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -26751,96 +26751,6 @@
   </si>
   <si>
     <t>W53D3H24</t>
-  </si>
-  <si>
-    <t>W01D3</t>
-  </si>
-  <si>
-    <t>W01D4</t>
-  </si>
-  <si>
-    <t>W01D5</t>
-  </si>
-  <si>
-    <t>W01D6</t>
-  </si>
-  <si>
-    <t>W01D7</t>
-  </si>
-  <si>
-    <t>W02D1</t>
-  </si>
-  <si>
-    <t>W02D2</t>
-  </si>
-  <si>
-    <t>W02D3</t>
-  </si>
-  <si>
-    <t>W02D4</t>
-  </si>
-  <si>
-    <t>W02D5</t>
-  </si>
-  <si>
-    <t>W02D6</t>
-  </si>
-  <si>
-    <t>W02D7</t>
-  </si>
-  <si>
-    <t>W03D1</t>
-  </si>
-  <si>
-    <t>W03D2</t>
-  </si>
-  <si>
-    <t>W03D3</t>
-  </si>
-  <si>
-    <t>W03D4</t>
-  </si>
-  <si>
-    <t>W03D5</t>
-  </si>
-  <si>
-    <t>W03D6</t>
-  </si>
-  <si>
-    <t>W03D7</t>
-  </si>
-  <si>
-    <t>W04D1</t>
-  </si>
-  <si>
-    <t>W04D2</t>
-  </si>
-  <si>
-    <t>W04D3</t>
-  </si>
-  <si>
-    <t>W04D4</t>
-  </si>
-  <si>
-    <t>W04D5</t>
-  </si>
-  <si>
-    <t>W04D6</t>
-  </si>
-  <si>
-    <t>W04D7</t>
-  </si>
-  <si>
-    <t>W01</t>
-  </si>
-  <si>
-    <t>W02</t>
-  </si>
-  <si>
-    <t>W03</t>
-  </si>
-  <si>
-    <t>W04</t>
   </si>
 </sst>
 </file>
@@ -29323,7 +29233,7 @@
   <dimension ref="B3:T8765"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29369,62 +29279,42 @@
       <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>8913</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>8887</v>
-      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="24" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H6" s="12" t="s">
-        <v>8914</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>8888</v>
-      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="24" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H7" s="12" t="s">
-        <v>8915</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>8889</v>
-      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="24" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H8" s="12" t="s">
-        <v>8916</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>8890</v>
-      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
-        <v>8891</v>
-      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="24" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I10" s="12" t="s">
-        <v>8892</v>
-      </c>
+      <c r="I10" s="12"/>
       <c r="J10" s="24" t="s">
         <v>131</v>
       </c>
@@ -29433,9 +29323,7 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I11" s="12" t="s">
-        <v>8893</v>
-      </c>
+      <c r="I11" s="12"/>
       <c r="J11" s="24" t="s">
         <v>132</v>
       </c>
@@ -29444,9 +29332,6 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I12" t="s">
-        <v>8894</v>
-      </c>
       <c r="J12" s="24" t="s">
         <v>133</v>
       </c>
@@ -29455,9 +29340,6 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I13" t="s">
-        <v>8895</v>
-      </c>
       <c r="J13" s="24" t="s">
         <v>134</v>
       </c>
@@ -29466,9 +29348,6 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
-        <v>8896</v>
-      </c>
       <c r="J14" s="24" t="s">
         <v>135</v>
       </c>
@@ -29477,9 +29356,6 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" t="s">
-        <v>8897</v>
-      </c>
       <c r="J15" s="24" t="s">
         <v>136</v>
       </c>
@@ -29488,9 +29364,6 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" t="s">
-        <v>8898</v>
-      </c>
       <c r="J16" s="24" t="s">
         <v>137</v>
       </c>
@@ -29498,10 +29371,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I17" t="s">
-        <v>8899</v>
-      </c>
+    <row r="17" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J17" s="24" t="s">
         <v>138</v>
       </c>
@@ -29509,10 +29379,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I18" t="s">
-        <v>8900</v>
-      </c>
+    <row r="18" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J18" s="24" t="s">
         <v>139</v>
       </c>
@@ -29520,10 +29387,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I19" t="s">
-        <v>8901</v>
-      </c>
+    <row r="19" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J19" s="24" t="s">
         <v>140</v>
       </c>
@@ -29531,10 +29395,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I20" t="s">
-        <v>8902</v>
-      </c>
+    <row r="20" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J20" s="24" t="s">
         <v>141</v>
       </c>
@@ -29542,10 +29403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I21" t="s">
-        <v>8903</v>
-      </c>
+    <row r="21" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J21" s="24" t="s">
         <v>142</v>
       </c>
@@ -29553,10 +29411,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
-        <v>8904</v>
-      </c>
+    <row r="22" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J22" s="24" t="s">
         <v>143</v>
       </c>
@@ -29564,10 +29419,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I23" t="s">
-        <v>8905</v>
-      </c>
+    <row r="23" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J23" s="24" t="s">
         <v>144</v>
       </c>
@@ -29575,10 +29427,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I24" t="s">
-        <v>8906</v>
-      </c>
+    <row r="24" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J24" s="24" t="s">
         <v>145</v>
       </c>
@@ -29586,10 +29435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I25" t="s">
-        <v>8907</v>
-      </c>
+    <row r="25" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J25" s="24" t="s">
         <v>146</v>
       </c>
@@ -29597,10 +29443,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I26" t="s">
-        <v>8908</v>
-      </c>
+    <row r="26" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J26" s="24" t="s">
         <v>147</v>
       </c>
@@ -29608,10 +29451,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I27" t="s">
-        <v>8909</v>
-      </c>
+    <row r="27" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J27" s="24" t="s">
         <v>148</v>
       </c>
@@ -29619,10 +29459,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I28" t="s">
-        <v>8910</v>
-      </c>
+    <row r="28" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J28" s="24" t="s">
         <v>149</v>
       </c>
@@ -29630,10 +29467,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
-        <v>8911</v>
-      </c>
+    <row r="29" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J29" s="24" t="s">
         <v>150</v>
       </c>
@@ -29641,10 +29475,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I30" t="s">
-        <v>8912</v>
-      </c>
+    <row r="30" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J30" s="24" t="s">
         <v>151</v>
       </c>
@@ -29652,7 +29483,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J31" s="24" t="s">
         <v>152</v>
       </c>
@@ -29660,7 +29491,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J32" s="24" t="s">
         <v>153</v>
       </c>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124EF6F5-16B9-4401-888B-FEEE06DA4B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A232298-AE4E-44B6-9B4D-D7B2CE85BAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29233,7 +29233,7 @@
   <dimension ref="B3:T8765"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="J5" sqref="J5:J628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A232298-AE4E-44B6-9B4D-D7B2CE85BAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7242907-BEEC-4B7D-B5DC-7D11455B100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -29232,7 +29232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:T8765"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J5" sqref="J5:J628"/>
     </sheetView>
   </sheetViews>
@@ -73443,8 +73443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:G34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73501,7 +73501,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7242907-BEEC-4B7D-B5DC-7D11455B100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB72343-F785-4952-800E-4D34E69B9228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73444,7 +73444,7 @@
   <dimension ref="B3:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73501,7 +73501,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="9">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB72343-F785-4952-800E-4D34E69B9228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF78F69-6E12-49CA-ABB7-EEE5F60D2E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -73254,10 +73254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:D18"/>
+  <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73312,15 +73312,15 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>2023</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>2030</v>
@@ -73328,10 +73328,10 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>2040</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -73339,6 +73339,14 @@
         <v>10</v>
       </c>
       <c r="D18">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
+        <v>10</v>
+      </c>
+      <c r="D19">
         <v>2050</v>
       </c>
     </row>
@@ -73443,7 +73451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF78F69-6E12-49CA-ABB7-EEE5F60D2E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2471D3AE-B877-4976-8C6D-6D8EB8549389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73254,10 +73254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B3:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73312,18 +73312,18 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>2025</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>2030</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -73331,22 +73331,38 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>2033</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>2040</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D19">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
+        <v>5</v>
+      </c>
+      <c r="D21">
         <v>2050</v>
       </c>
     </row>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2471D3AE-B877-4976-8C6D-6D8EB8549389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BD2443-6CA8-466E-AA94-631756DEA926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73257,7 +73257,7 @@
   <dimension ref="B3:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73312,7 +73312,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>2021</v>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BD2443-6CA8-466E-AA94-631756DEA926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E016FFB-3692-4365-96A4-8C43BC1EBD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73257,7 +73257,7 @@
   <dimension ref="B3:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73315,56 +73315,41 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>2021</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>2025</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>2030</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>2035</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="18">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>2040</v>
-      </c>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="18">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>2045</v>
-      </c>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="18">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>2050</v>
-      </c>
+      <c r="B21" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E016FFB-3692-4365-96A4-8C43BC1EBD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1425B167-1F4D-443E-8156-83CBF902CB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8918" uniqueCount="8887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8919" uniqueCount="8888">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -26751,6 +26751,9 @@
   </si>
   <si>
     <t>W53D3H24</t>
+  </si>
+  <si>
+    <t>P2</t>
   </si>
 </sst>
 </file>
@@ -73254,10 +73257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:D21"/>
+  <dimension ref="B3:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73286,7 +73289,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>8887</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -73301,11 +73304,17 @@
       <c r="B13" s="15" t="s">
         <v>68</v>
       </c>
+      <c r="C13" t="s">
+        <v>8887</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14">
         <v>2020</v>
       </c>
@@ -73314,6 +73323,9 @@
       <c r="B15" s="18">
         <v>5</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="D15">
         <v>2023</v>
       </c>
@@ -73322,6 +73334,9 @@
       <c r="B16" s="18">
         <v>10</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="D16">
         <v>2030</v>
       </c>
@@ -73330,6 +73345,9 @@
       <c r="B17" s="18">
         <v>10</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="D17">
         <v>2040</v>
       </c>
@@ -73338,18 +73356,190 @@
       <c r="B18" s="18">
         <v>10</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="D18">
         <v>2050</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
+      <c r="C19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
+      <c r="C20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1425B167-1F4D-443E-8156-83CBF902CB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2195E17-44C0-494F-BE59-C9F038B6794F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -73259,7 +73259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -73642,8 +73642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:G34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73700,7 +73700,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="9">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2195E17-44C0-494F-BE59-C9F038B6794F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12BFF1C-9744-471E-AC1B-E5BE34554CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73643,7 +73643,7 @@
   <dimension ref="B3:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73700,7 +73700,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="9">
-        <v>1.0000000000000001E-5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12BFF1C-9744-471E-AC1B-E5BE34554CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8467636-18BF-428D-B69F-C31A21B86765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73643,7 +73643,7 @@
   <dimension ref="B3:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73700,7 +73700,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="9">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8467636-18BF-428D-B69F-C31A21B86765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BA0AD4-DC0A-4876-952F-5A616B873D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73643,7 +73643,7 @@
   <dimension ref="B3:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73700,7 +73700,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="9">
-        <v>0.05</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BA0AD4-DC0A-4876-952F-5A616B873D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D22A41-CD31-43FC-BF32-FEFF29A3C9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73642,8 +73642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73700,7 +73700,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="9">
-        <v>9.9999999999999995E-7</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D22A41-CD31-43FC-BF32-FEFF29A3C9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688CC1CF-8A91-480C-B583-141879109D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8919" uniqueCount="8888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8954" uniqueCount="8923">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -26754,6 +26754,111 @@
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>W01</t>
+  </si>
+  <si>
+    <t>W02</t>
+  </si>
+  <si>
+    <t>W03</t>
+  </si>
+  <si>
+    <t>W04</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>H04</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>H06</t>
+  </si>
+  <si>
+    <t>H07</t>
+  </si>
+  <si>
+    <t>H08</t>
+  </si>
+  <si>
+    <t>H09</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>H17</t>
+  </si>
+  <si>
+    <t>H18</t>
+  </si>
+  <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>H20</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
+  <si>
+    <t>H22</t>
+  </si>
+  <si>
+    <t>H23</t>
+  </si>
+  <si>
+    <t>H24</t>
   </si>
 </sst>
 </file>
@@ -29235,8 +29340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:T8765"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J628"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29282,429 +29387,484 @@
       <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="24" t="s">
-        <v>126</v>
+      <c r="H5" s="12" t="s">
+        <v>8888</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>8892</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8899</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="24" t="s">
-        <v>127</v>
+      <c r="H6" s="12" t="s">
+        <v>8889</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>8893</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8900</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="24" t="s">
-        <v>128</v>
+      <c r="H7" s="12" t="s">
+        <v>8890</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>8894</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8901</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="24" t="s">
-        <v>129</v>
+      <c r="H8" s="12" t="s">
+        <v>8891</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>8895</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8902</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="24" t="s">
-        <v>130</v>
+      <c r="I9" s="12" t="s">
+        <v>8896</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8903</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I10" s="12"/>
-      <c r="J10" s="24" t="s">
-        <v>131</v>
+      <c r="I10" s="12" t="s">
+        <v>8897</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8904</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I11" s="12"/>
-      <c r="J11" s="24" t="s">
-        <v>132</v>
+      <c r="I11" s="12" t="s">
+        <v>8898</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8905</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J12" s="24" t="s">
-        <v>133</v>
+      <c r="J12" t="s">
+        <v>8906</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J13" s="24" t="s">
-        <v>134</v>
+      <c r="J13" t="s">
+        <v>8907</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J14" s="24" t="s">
-        <v>135</v>
+      <c r="J14" t="s">
+        <v>8908</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J15" s="24" t="s">
-        <v>136</v>
+      <c r="J15" t="s">
+        <v>8909</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J16" s="24" t="s">
-        <v>137</v>
+      <c r="J16" t="s">
+        <v>8910</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J17" s="24" t="s">
-        <v>138</v>
+      <c r="J17" t="s">
+        <v>8911</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J18" s="24" t="s">
-        <v>139</v>
+      <c r="J18" t="s">
+        <v>8912</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J19" s="24" t="s">
-        <v>140</v>
+      <c r="J19" t="s">
+        <v>8913</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J20" s="24" t="s">
-        <v>141</v>
+      <c r="J20" t="s">
+        <v>8914</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J21" s="24" t="s">
-        <v>142</v>
+      <c r="J21" t="s">
+        <v>8915</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J22" s="24" t="s">
-        <v>143</v>
+      <c r="J22" t="s">
+        <v>8916</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="T22" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J23" s="24" t="s">
-        <v>144</v>
+      <c r="J23" t="s">
+        <v>8917</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J24" s="24" t="s">
-        <v>145</v>
+      <c r="J24" t="s">
+        <v>8918</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J25" s="24" t="s">
-        <v>146</v>
+      <c r="J25" t="s">
+        <v>8919</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="T25" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J26" s="24" t="s">
-        <v>147</v>
+      <c r="J26" t="s">
+        <v>8920</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J27" s="24" t="s">
-        <v>148</v>
+      <c r="J27" t="s">
+        <v>8921</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J28" s="24" t="s">
-        <v>149</v>
+      <c r="J28" t="s">
+        <v>8922</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="T28" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J29" s="24" t="s">
-        <v>150</v>
+      <c r="M29" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="T29" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J30" s="24" t="s">
-        <v>151</v>
+      <c r="M30" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="T30" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J31" s="24" t="s">
-        <v>152</v>
+      <c r="M31" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="T31" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J32" s="24" t="s">
-        <v>153</v>
+      <c r="M32" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="T32" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J33" s="24" t="s">
-        <v>154</v>
+    <row r="33" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M33" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="T33" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J34" s="24" t="s">
-        <v>155</v>
+    <row r="34" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M34" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="T34" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J35" s="24" t="s">
-        <v>156</v>
+    <row r="35" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M35" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="T35" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J36" s="24" t="s">
-        <v>157</v>
+    <row r="36" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M36" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="T36" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J37" s="24" t="s">
-        <v>158</v>
+    <row r="37" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M37" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="T37" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J38" s="24" t="s">
-        <v>159</v>
+    <row r="38" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M38" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="T38" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J39" s="24" t="s">
-        <v>160</v>
+    <row r="39" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M39" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="T39" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J40" s="24" t="s">
-        <v>161</v>
+    <row r="40" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M40" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="T40" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J41" s="24" t="s">
-        <v>162</v>
+    <row r="41" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M41" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="T41" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J42" s="24" t="s">
-        <v>163</v>
+    <row r="42" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M42" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="T42" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J43" s="24" t="s">
-        <v>164</v>
+    <row r="43" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M43" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="T43" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J44" s="24" t="s">
-        <v>165</v>
+    <row r="44" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M44" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="T44" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J45" s="24" t="s">
-        <v>166</v>
+    <row r="45" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M45" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="T45" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J46" s="24" t="s">
-        <v>167</v>
+    <row r="46" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M46" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="T46" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J47" s="24" t="s">
-        <v>168</v>
+    <row r="47" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M47" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="T47" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J48" s="24" t="s">
-        <v>169</v>
+    <row r="48" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M48" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="T48" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="49" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J49" s="24" t="s">
-        <v>170</v>
+      <c r="M49" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="T49" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="50" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J50" s="24" t="s">
-        <v>171</v>
+      <c r="M50" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="T50" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="51" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J51" s="24" t="s">
-        <v>172</v>
+      <c r="M51" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="T51" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="52" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J52" s="24" t="s">
-        <v>173</v>
+      <c r="M52" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="T52" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="53" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J53" s="24" t="s">
-        <v>174</v>
+      <c r="M53" s="24" t="s">
+        <v>161</v>
       </c>
       <c r="T53" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="54" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J54" s="24" t="s">
-        <v>175</v>
+      <c r="M54" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="T54" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="55" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J55" s="24" t="s">
-        <v>176</v>
+      <c r="M55" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="T55" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J56" s="24" t="s">
-        <v>177</v>
+      <c r="M56" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="T56" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="57" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J57" s="24" t="s">
-        <v>178</v>
+      <c r="M57" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="T57" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="58" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J58" s="24" t="s">
-        <v>179</v>
+      <c r="M58" s="24" t="s">
+        <v>166</v>
       </c>
       <c r="T58" s="12" t="s">
         <v>125</v>
@@ -29712,2990 +29872,3029 @@
     </row>
     <row r="59" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H59" s="10"/>
-      <c r="J59" s="24" t="s">
-        <v>180</v>
+      <c r="M59" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H60" s="10"/>
-      <c r="J60" s="24" t="s">
+      <c r="M60" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="M61" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="M62" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="M63" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="M64" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M65" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M66" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M67" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M68" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M69" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M70" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M71" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M72" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M73" s="24" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J61" s="24" t="s">
+    <row r="74" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M74" s="24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J62" s="24" t="s">
+    <row r="75" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M75" s="24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J63" s="24" t="s">
+    <row r="76" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M76" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="8:20" x14ac:dyDescent="0.25">
-      <c r="J64" s="24" t="s">
+    <row r="77" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M77" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J65" s="24" t="s">
+    <row r="78" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M78" s="24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J66" s="24" t="s">
+    <row r="79" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M79" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J67" s="24" t="s">
+    <row r="80" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M80" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J68" s="24" t="s">
+    <row r="81" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M81" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J69" s="24" t="s">
+    <row r="82" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M82" s="24" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J70" s="24" t="s">
+    <row r="83" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M83" s="24" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J71" s="24" t="s">
+    <row r="84" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M84" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J72" s="24" t="s">
+    <row r="85" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M85" s="24" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J73" s="24" t="s">
+    <row r="86" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M86" s="24" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J74" s="24" t="s">
+    <row r="87" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M87" s="24" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J75" s="24" t="s">
+    <row r="88" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M88" s="24" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J76" s="24" t="s">
+    <row r="89" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M89" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J77" s="24" t="s">
+    <row r="90" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M90" s="24" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J78" s="24" t="s">
+    <row r="91" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M91" s="24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J79" s="24" t="s">
+    <row r="92" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M92" s="24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J80" s="24" t="s">
+    <row r="93" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M93" s="24" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J81" s="24" t="s">
+    <row r="94" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M94" s="24" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J82" s="24" t="s">
+    <row r="95" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M95" s="24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J83" s="24" t="s">
+    <row r="96" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M96" s="24" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J84" s="24" t="s">
+    <row r="97" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M97" s="24" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J85" s="24" t="s">
+    <row r="98" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M98" s="24" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J86" s="24" t="s">
+    <row r="99" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M99" s="24" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J87" s="24" t="s">
+    <row r="100" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M100" s="24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J88" s="24" t="s">
+    <row r="101" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M101" s="24" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J89" s="24" t="s">
+    <row r="102" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M102" s="24" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J90" s="24" t="s">
+    <row r="103" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M103" s="24" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J91" s="24" t="s">
+    <row r="104" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M104" s="24" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J92" s="24" t="s">
+    <row r="105" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M105" s="24" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J93" s="24" t="s">
+    <row r="106" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M106" s="24" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J94" s="24" t="s">
+    <row r="107" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M107" s="24" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J95" s="24" t="s">
+    <row r="108" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M108" s="24" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J96" s="24" t="s">
+    <row r="109" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M109" s="24" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J97" s="24" t="s">
+    <row r="110" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M110" s="24" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J98" s="24" t="s">
+    <row r="111" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M111" s="24" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J99" s="24" t="s">
+    <row r="112" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M112" s="24" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J100" s="24" t="s">
+    <row r="113" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M113" s="24" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J101" s="24" t="s">
+    <row r="114" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M114" s="24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J102" s="24" t="s">
+    <row r="115" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M115" s="24" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J103" s="24" t="s">
+    <row r="116" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M116" s="24" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J104" s="24" t="s">
+    <row r="117" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M117" s="24" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J105" s="24" t="s">
+    <row r="118" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M118" s="24" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J106" s="24" t="s">
+    <row r="119" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M119" s="24" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J107" s="24" t="s">
+    <row r="120" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M120" s="24" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J108" s="24" t="s">
+    <row r="121" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M121" s="24" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J109" s="24" t="s">
+    <row r="122" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M122" s="24" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J110" s="24" t="s">
+    <row r="123" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M123" s="24" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J111" s="24" t="s">
+    <row r="124" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M124" s="24" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J112" s="24" t="s">
+    <row r="125" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M125" s="24" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J113" s="24" t="s">
+    <row r="126" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M126" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J114" s="24" t="s">
+    <row r="127" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M127" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J115" s="24" t="s">
+    <row r="128" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M128" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J116" s="24" t="s">
+    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M129" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J117" s="24" t="s">
+    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M130" s="24" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J118" s="24" t="s">
+    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M131" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J119" s="24" t="s">
+    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M132" s="24" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J120" s="24" t="s">
+    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M133" s="24" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J121" s="24" t="s">
+    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M134" s="24" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J122" s="24" t="s">
+    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M135" s="24" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J123" s="24" t="s">
+    <row r="136" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M136" s="24" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J124" s="24" t="s">
+    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M137" s="24" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J125" s="24" t="s">
+    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M138" s="24" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J126" s="24" t="s">
+    <row r="139" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M139" s="24" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J127" s="24" t="s">
+    <row r="140" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M140" s="24" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J128" s="24" t="s">
+    <row r="141" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M141" s="24" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J129" s="24" t="s">
+    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M142" s="24" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J130" s="24" t="s">
+    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M143" s="24" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J131" s="24" t="s">
+    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M144" s="24" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J132" s="24" t="s">
+    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M145" s="24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J133" s="24" t="s">
+    <row r="146" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M146" s="24" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J134" s="24" t="s">
+    <row r="147" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M147" s="24" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J135" s="24" t="s">
+    <row r="148" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M148" s="24" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J136" s="24" t="s">
+    <row r="149" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M149" s="24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J137" s="24" t="s">
+    <row r="150" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M150" s="24" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J138" s="24" t="s">
+    <row r="151" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M151" s="24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J139" s="24" t="s">
+    <row r="152" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M152" s="24" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J140" s="24" t="s">
+    <row r="153" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M153" s="24" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J141" s="24" t="s">
+    <row r="154" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M154" s="24" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J142" s="24" t="s">
+    <row r="155" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M155" s="24" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J143" s="24" t="s">
+    <row r="156" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M156" s="24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J144" s="24" t="s">
+    <row r="157" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M157" s="24" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J145" s="24" t="s">
+    <row r="158" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M158" s="24" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J146" s="24" t="s">
+    <row r="159" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M159" s="24" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J147" s="24" t="s">
+    <row r="160" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M160" s="24" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J148" s="24" t="s">
+    <row r="161" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M161" s="24" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J149" s="24" t="s">
+    <row r="162" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M162" s="24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J150" s="24" t="s">
+    <row r="163" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M163" s="24" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J151" s="24" t="s">
+    <row r="164" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M164" s="24" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J152" s="24" t="s">
+    <row r="165" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M165" s="24" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J153" s="24" t="s">
+    <row r="166" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M166" s="24" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J154" s="24" t="s">
+    <row r="167" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M167" s="24" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J155" s="24" t="s">
+    <row r="168" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M168" s="24" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J156" s="24" t="s">
+    <row r="169" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M169" s="24" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J157" s="24" t="s">
+    <row r="170" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M170" s="24" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J158" s="24" t="s">
+    <row r="171" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M171" s="24" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J159" s="24" t="s">
+    <row r="172" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M172" s="24" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J160" s="24" t="s">
+    <row r="173" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M173" s="24" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J161" s="24" t="s">
+    <row r="174" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M174" s="24" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J162" s="24" t="s">
+    <row r="175" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M175" s="24" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J163" s="24" t="s">
+    <row r="176" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M176" s="24" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J164" s="24" t="s">
+    <row r="177" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M177" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J165" s="24" t="s">
+    <row r="178" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M178" s="24" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J166" s="24" t="s">
+    <row r="179" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M179" s="24" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J167" s="24" t="s">
+    <row r="180" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M180" s="24" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J168" s="24" t="s">
+    <row r="181" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M181" s="24" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J169" s="24" t="s">
+    <row r="182" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M182" s="24" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J170" s="24" t="s">
+    <row r="183" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M183" s="24" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J171" s="24" t="s">
+    <row r="184" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M184" s="24" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J172" s="24" t="s">
+    <row r="185" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M185" s="24" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J173" s="24" t="s">
+    <row r="186" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M186" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J174" s="24" t="s">
+    <row r="187" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M187" s="24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J175" s="24" t="s">
+    <row r="188" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M188" s="24" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J176" s="24" t="s">
+    <row r="189" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M189" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J177" s="24" t="s">
+    <row r="190" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M190" s="24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J178" s="24" t="s">
+    <row r="191" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M191" s="24" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J179" s="24" t="s">
+    <row r="192" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M192" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J180" s="24" t="s">
+    <row r="193" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M193" s="24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J181" s="24" t="s">
+    <row r="194" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M194" s="24" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J182" s="24" t="s">
+    <row r="195" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M195" s="24" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J183" s="24" t="s">
+    <row r="196" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M196" s="24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J184" s="24" t="s">
+    <row r="197" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M197" s="24" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J185" s="24" t="s">
+    <row r="198" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M198" s="24" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J186" s="24" t="s">
+    <row r="199" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M199" s="24" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J187" s="24" t="s">
+    <row r="200" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M200" s="24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J188" s="24" t="s">
+    <row r="201" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M201" s="24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J189" s="24" t="s">
+    <row r="202" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M202" s="24" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J190" s="24" t="s">
+    <row r="203" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M203" s="24" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J191" s="24" t="s">
+    <row r="204" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M204" s="24" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J192" s="24" t="s">
+    <row r="205" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M205" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J193" s="24" t="s">
+    <row r="206" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M206" s="24" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J194" s="24" t="s">
+    <row r="207" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M207" s="24" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J195" s="24" t="s">
+    <row r="208" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M208" s="24" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J196" s="24" t="s">
+    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M209" s="24" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J197" s="24" t="s">
+    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M210" s="24" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J198" s="24" t="s">
+    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M211" s="24" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J199" s="24" t="s">
+    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M212" s="24" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J200" s="24" t="s">
+    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M213" s="24" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J201" s="24" t="s">
+    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M214" s="24" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J202" s="24" t="s">
+    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M215" s="24" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J203" s="24" t="s">
+    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M216" s="24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J204" s="24" t="s">
+    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M217" s="24" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J205" s="24" t="s">
+    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M218" s="24" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J206" s="24" t="s">
+    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M219" s="24" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J207" s="24" t="s">
+    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M220" s="24" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J208" s="24" t="s">
+    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M221" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J209" s="24" t="s">
+    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M222" s="24" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J210" s="24" t="s">
+    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M223" s="24" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J211" s="24" t="s">
+    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M224" s="24" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J212" s="24" t="s">
+    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M225" s="24" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J213" s="24" t="s">
+    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M226" s="24" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J214" s="24" t="s">
+    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M227" s="24" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J215" s="24" t="s">
+    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M228" s="24" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J216" s="24" t="s">
+    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M229" s="24" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J217" s="24" t="s">
+    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M230" s="24" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J218" s="24" t="s">
+    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M231" s="24" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J219" s="24" t="s">
+    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M232" s="24" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J220" s="24" t="s">
+    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M233" s="24" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J221" s="24" t="s">
+    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M234" s="24" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J222" s="24" t="s">
+    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M235" s="24" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J223" s="24" t="s">
+    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M236" s="24" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J224" s="24" t="s">
+    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M237" s="24" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J225" s="24" t="s">
+    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M238" s="24" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J226" s="24" t="s">
+    <row r="239" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M239" s="24" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J227" s="24" t="s">
+    <row r="240" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M240" s="24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J228" s="24" t="s">
+    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M241" s="24" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J229" s="24" t="s">
+    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M242" s="24" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J230" s="24" t="s">
+    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M243" s="24" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J231" s="24" t="s">
+    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M244" s="24" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J232" s="24" t="s">
+    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M245" s="24" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J233" s="24" t="s">
+    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M246" s="24" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J234" s="24" t="s">
+    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M247" s="24" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J235" s="24" t="s">
+    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M248" s="24" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J236" s="24" t="s">
+    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M249" s="24" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J237" s="24" t="s">
+    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M250" s="24" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J238" s="24" t="s">
+    <row r="251" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M251" s="24" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J239" s="24" t="s">
+    <row r="252" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M252" s="24" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J240" s="24" t="s">
+    <row r="253" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M253" s="24" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J241" s="24" t="s">
+    <row r="254" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M254" s="24" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J242" s="24" t="s">
+    <row r="255" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M255" s="24" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J243" s="24" t="s">
+    <row r="256" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M256" s="24" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J244" s="24" t="s">
+    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M257" s="24" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J245" s="24" t="s">
+    <row r="258" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M258" s="24" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J246" s="24" t="s">
+    <row r="259" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M259" s="24" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J247" s="24" t="s">
+    <row r="260" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M260" s="24" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J248" s="24" t="s">
+    <row r="261" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M261" s="24" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J249" s="24" t="s">
+    <row r="262" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M262" s="24" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J250" s="24" t="s">
+    <row r="263" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M263" s="24" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J251" s="24" t="s">
+    <row r="264" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M264" s="24" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J252" s="24" t="s">
+    <row r="265" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M265" s="24" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J253" s="24" t="s">
+    <row r="266" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M266" s="24" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J254" s="24" t="s">
+    <row r="267" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M267" s="24" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J255" s="24" t="s">
+    <row r="268" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M268" s="24" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J256" s="24" t="s">
+    <row r="269" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M269" s="24" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J257" s="24" t="s">
+    <row r="270" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M270" s="24" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J258" s="24" t="s">
+    <row r="271" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M271" s="24" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J259" s="24" t="s">
+    <row r="272" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M272" s="24" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J260" s="24" t="s">
+    <row r="273" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M273" s="24" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J261" s="24" t="s">
+    <row r="274" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M274" s="24" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J262" s="24" t="s">
+    <row r="275" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M275" s="24" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J263" s="24" t="s">
+    <row r="276" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M276" s="24" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J264" s="24" t="s">
+    <row r="277" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M277" s="24" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J265" s="24" t="s">
+    <row r="278" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M278" s="24" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J266" s="24" t="s">
+    <row r="279" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M279" s="24" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J267" s="24" t="s">
+    <row r="280" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M280" s="24" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J268" s="24" t="s">
+    <row r="281" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M281" s="24" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J269" s="24" t="s">
+    <row r="282" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M282" s="24" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J270" s="24" t="s">
+    <row r="283" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M283" s="24" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J271" s="24" t="s">
+    <row r="284" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M284" s="24" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J272" s="24" t="s">
+    <row r="285" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M285" s="24" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J273" s="24" t="s">
+    <row r="286" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M286" s="24" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J274" s="24" t="s">
+    <row r="287" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M287" s="24" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J275" s="24" t="s">
+    <row r="288" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M288" s="24" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J276" s="24" t="s">
+    <row r="289" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M289" s="24" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J277" s="24" t="s">
+    <row r="290" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M290" s="24" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J278" s="24" t="s">
+    <row r="291" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M291" s="24" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J279" s="24" t="s">
+    <row r="292" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M292" s="24" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J280" s="24" t="s">
+    <row r="293" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M293" s="24" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J281" s="24" t="s">
+    <row r="294" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M294" s="24" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J282" s="24" t="s">
+    <row r="295" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M295" s="24" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J283" s="24" t="s">
+    <row r="296" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M296" s="24" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J284" s="24" t="s">
+    <row r="297" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M297" s="24" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J285" s="24" t="s">
+    <row r="298" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M298" s="24" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J286" s="24" t="s">
+    <row r="299" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M299" s="24" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J287" s="24" t="s">
+    <row r="300" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M300" s="24" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J288" s="24" t="s">
+    <row r="301" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M301" s="24" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="289" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J289" s="24" t="s">
+    <row r="302" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M302" s="24" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="290" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J290" s="24" t="s">
+    <row r="303" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M303" s="24" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="291" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J291" s="24" t="s">
+    <row r="304" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M304" s="24" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="292" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J292" s="24" t="s">
+    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M305" s="24" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="293" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J293" s="24" t="s">
+    <row r="306" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M306" s="24" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="294" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J294" s="24" t="s">
+    <row r="307" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M307" s="24" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="295" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J295" s="24" t="s">
+    <row r="308" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M308" s="24" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="296" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J296" s="24" t="s">
+    <row r="309" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M309" s="24" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="297" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J297" s="24" t="s">
+    <row r="310" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M310" s="24" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="298" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J298" s="24" t="s">
+    <row r="311" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M311" s="24" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="299" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J299" s="24" t="s">
+    <row r="312" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M312" s="24" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="300" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J300" s="24" t="s">
+    <row r="313" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M313" s="24" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="301" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J301" s="24" t="s">
+    <row r="314" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M314" s="24" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="302" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J302" s="24" t="s">
+    <row r="315" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M315" s="24" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="303" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J303" s="24" t="s">
+    <row r="316" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M316" s="24" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="304" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J304" s="24" t="s">
+    <row r="317" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M317" s="24" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="305" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J305" s="24" t="s">
+    <row r="318" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M318" s="24" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="306" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J306" s="24" t="s">
+    <row r="319" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M319" s="24" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="307" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J307" s="24" t="s">
+    <row r="320" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M320" s="24" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="308" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J308" s="24" t="s">
+    <row r="321" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M321" s="24" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="309" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J309" s="24" t="s">
+    <row r="322" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M322" s="24" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="310" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J310" s="24" t="s">
+    <row r="323" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M323" s="24" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="311" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J311" s="24" t="s">
+    <row r="324" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M324" s="24" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="312" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J312" s="24" t="s">
+    <row r="325" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M325" s="24" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="313" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J313" s="24" t="s">
+    <row r="326" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M326" s="24" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="314" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J314" s="24" t="s">
+    <row r="327" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M327" s="24" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="315" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J315" s="24" t="s">
+    <row r="328" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M328" s="24" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="316" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J316" s="24" t="s">
+    <row r="329" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M329" s="24" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="317" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J317" s="24" t="s">
+    <row r="330" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M330" s="24" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="318" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J318" s="24" t="s">
+    <row r="331" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M331" s="24" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="319" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J319" s="24" t="s">
+    <row r="332" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M332" s="24" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="320" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J320" s="24" t="s">
+    <row r="333" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M333" s="24" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="321" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J321" s="24" t="s">
+    <row r="334" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M334" s="24" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="322" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J322" s="24" t="s">
+    <row r="335" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M335" s="24" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="323" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J323" s="24" t="s">
+    <row r="336" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M336" s="24" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="324" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J324" s="24" t="s">
+    <row r="337" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M337" s="24" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="325" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J325" s="24" t="s">
+    <row r="338" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M338" s="24" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="326" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J326" s="24" t="s">
+    <row r="339" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M339" s="24" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="327" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J327" s="24" t="s">
+    <row r="340" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M340" s="24" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="328" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J328" s="24" t="s">
+    <row r="341" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M341" s="24" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="329" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J329" s="24" t="s">
+    <row r="342" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M342" s="24" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="330" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J330" s="24" t="s">
+    <row r="343" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M343" s="24" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="331" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J331" s="24" t="s">
+    <row r="344" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M344" s="24" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="332" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J332" s="24" t="s">
+    <row r="345" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M345" s="24" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="333" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J333" s="24" t="s">
+    <row r="346" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M346" s="24" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="334" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J334" s="24" t="s">
+    <row r="347" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M347" s="24" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="335" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J335" s="24" t="s">
+    <row r="348" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M348" s="24" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="336" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J336" s="24" t="s">
+    <row r="349" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M349" s="24" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="337" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J337" s="24" t="s">
+    <row r="350" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M350" s="24" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="338" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J338" s="24" t="s">
+    <row r="351" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M351" s="24" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="339" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J339" s="24" t="s">
+    <row r="352" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M352" s="24" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="340" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J340" s="24" t="s">
+    <row r="353" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M353" s="24" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="341" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J341" s="24" t="s">
+    <row r="354" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M354" s="24" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="342" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J342" s="24" t="s">
+    <row r="355" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M355" s="24" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="343" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J343" s="24" t="s">
+    <row r="356" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M356" s="24" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="344" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J344" s="24" t="s">
+    <row r="357" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M357" s="24" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="345" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J345" s="24" t="s">
+    <row r="358" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M358" s="24" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="346" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J346" s="24" t="s">
+    <row r="359" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M359" s="24" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="347" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J347" s="24" t="s">
+    <row r="360" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M360" s="24" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="348" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J348" s="24" t="s">
+    <row r="361" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M361" s="24" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="349" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J349" s="24" t="s">
+    <row r="362" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M362" s="24" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="350" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J350" s="24" t="s">
+    <row r="363" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M363" s="24" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="351" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J351" s="24" t="s">
+    <row r="364" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M364" s="24" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="352" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J352" s="24" t="s">
+    <row r="365" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M365" s="24" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="353" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J353" s="24" t="s">
+    <row r="366" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M366" s="24" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="354" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J354" s="24" t="s">
+    <row r="367" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M367" s="24" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="355" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J355" s="24" t="s">
+    <row r="368" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M368" s="24" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="356" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J356" s="24" t="s">
+    <row r="369" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M369" s="24" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="357" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J357" s="24" t="s">
+    <row r="370" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M370" s="24" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="358" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J358" s="24" t="s">
+    <row r="371" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M371" s="24" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="359" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J359" s="24" t="s">
+    <row r="372" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M372" s="24" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="360" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J360" s="24" t="s">
+    <row r="373" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M373" s="24" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="361" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J361" s="24" t="s">
+    <row r="374" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M374" s="24" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="362" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J362" s="24" t="s">
+    <row r="375" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M375" s="24" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="363" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J363" s="24" t="s">
+    <row r="376" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M376" s="24" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="364" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J364" s="24" t="s">
+    <row r="377" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M377" s="24" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="365" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J365" s="24" t="s">
+    <row r="378" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M378" s="24" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="366" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J366" s="24" t="s">
+    <row r="379" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M379" s="24" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="367" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J367" s="24" t="s">
+    <row r="380" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M380" s="24" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="368" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J368" s="24" t="s">
+    <row r="381" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M381" s="24" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="369" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J369" s="24" t="s">
+    <row r="382" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M382" s="24" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="370" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J370" s="24" t="s">
+    <row r="383" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M383" s="24" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="371" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J371" s="24" t="s">
+    <row r="384" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M384" s="24" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="372" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J372" s="24" t="s">
+    <row r="385" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M385" s="24" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="373" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J373" s="24" t="s">
+    <row r="386" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M386" s="24" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="374" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J374" s="24" t="s">
+    <row r="387" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M387" s="24" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="375" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J375" s="24" t="s">
+    <row r="388" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M388" s="24" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="376" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J376" s="24" t="s">
+    <row r="389" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M389" s="24" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="377" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J377" s="24" t="s">
+    <row r="390" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M390" s="24" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="378" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J378" s="24" t="s">
+    <row r="391" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M391" s="24" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="379" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J379" s="24" t="s">
+    <row r="392" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M392" s="24" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="380" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J380" s="24" t="s">
+    <row r="393" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M393" s="24" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="381" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J381" s="24" t="s">
+    <row r="394" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M394" s="24" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="382" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J382" s="24" t="s">
+    <row r="395" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M395" s="24" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="383" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J383" s="24" t="s">
+    <row r="396" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M396" s="24" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="384" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J384" s="24" t="s">
+    <row r="397" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M397" s="24" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="385" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J385" s="24" t="s">
+    <row r="398" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M398" s="24" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="386" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J386" s="24" t="s">
+    <row r="399" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M399" s="24" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="387" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J387" s="24" t="s">
+    <row r="400" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M400" s="24" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="388" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J388" s="24" t="s">
+    <row r="401" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M401" s="24" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="389" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J389" s="24" t="s">
+    <row r="402" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M402" s="24" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="390" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J390" s="24" t="s">
+    <row r="403" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M403" s="24" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="391" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J391" s="24" t="s">
+    <row r="404" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M404" s="24" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="392" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J392" s="24" t="s">
+    <row r="405" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M405" s="24" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="393" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J393" s="24" t="s">
+    <row r="406" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M406" s="24" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="394" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J394" s="24" t="s">
+    <row r="407" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M407" s="24" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="395" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J395" s="24" t="s">
+    <row r="408" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M408" s="24" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="396" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J396" s="24" t="s">
+    <row r="409" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M409" s="24" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="397" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J397" s="24" t="s">
+    <row r="410" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M410" s="24" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="398" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J398" s="24" t="s">
+    <row r="411" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M411" s="24" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="399" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J399" s="24" t="s">
+    <row r="412" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M412" s="24" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="400" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J400" s="24" t="s">
+    <row r="413" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M413" s="24" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="401" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J401" s="24" t="s">
+    <row r="414" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M414" s="24" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="402" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J402" s="24" t="s">
+    <row r="415" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M415" s="24" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="403" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J403" s="24" t="s">
+    <row r="416" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M416" s="24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="404" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J404" s="24" t="s">
+    <row r="417" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M417" s="24" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="405" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J405" s="24" t="s">
+    <row r="418" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M418" s="24" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="406" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J406" s="24" t="s">
+    <row r="419" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M419" s="24" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="407" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J407" s="24" t="s">
+    <row r="420" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M420" s="24" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="408" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J408" s="24" t="s">
+    <row r="421" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M421" s="24" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="409" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J409" s="24" t="s">
+    <row r="422" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M422" s="24" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="410" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J410" s="24" t="s">
+    <row r="423" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M423" s="24" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="411" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J411" s="24" t="s">
+    <row r="424" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M424" s="24" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="412" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J412" s="24" t="s">
+    <row r="425" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M425" s="24" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="413" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J413" s="24" t="s">
+    <row r="426" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M426" s="24" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="414" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J414" s="24" t="s">
+    <row r="427" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M427" s="24" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="415" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J415" s="24" t="s">
+    <row r="428" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M428" s="24" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="416" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J416" s="24" t="s">
+    <row r="429" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M429" s="24" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="417" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J417" s="24" t="s">
+    <row r="430" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M430" s="24" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="418" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J418" s="24" t="s">
+    <row r="431" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M431" s="24" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="419" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J419" s="24" t="s">
+    <row r="432" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M432" s="24" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="420" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J420" s="24" t="s">
+    <row r="433" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M433" s="24" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="421" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J421" s="24" t="s">
+    <row r="434" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M434" s="24" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="422" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J422" s="24" t="s">
+    <row r="435" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M435" s="24" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="423" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J423" s="24" t="s">
+    <row r="436" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M436" s="24" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="424" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J424" s="24" t="s">
+    <row r="437" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M437" s="24" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="425" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J425" s="24" t="s">
+    <row r="438" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M438" s="24" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="426" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J426" s="24" t="s">
+    <row r="439" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M439" s="24" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="427" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J427" s="24" t="s">
+    <row r="440" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M440" s="24" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="428" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J428" s="24" t="s">
+    <row r="441" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M441" s="24" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="429" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J429" s="24" t="s">
+    <row r="442" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M442" s="24" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="430" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J430" s="24" t="s">
+    <row r="443" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M443" s="24" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="431" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J431" s="24" t="s">
+    <row r="444" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M444" s="24" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="432" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J432" s="24" t="s">
+    <row r="445" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M445" s="24" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="433" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J433" s="24" t="s">
+    <row r="446" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M446" s="24" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="434" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J434" s="24" t="s">
+    <row r="447" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M447" s="24" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="435" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J435" s="24" t="s">
+    <row r="448" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M448" s="24" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="436" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J436" s="24" t="s">
+    <row r="449" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M449" s="24" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="437" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J437" s="24" t="s">
+    <row r="450" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M450" s="24" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="438" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J438" s="24" t="s">
+    <row r="451" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M451" s="24" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="439" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J439" s="24" t="s">
+    <row r="452" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M452" s="24" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="440" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J440" s="24" t="s">
+    <row r="453" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M453" s="24" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="441" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J441" s="24" t="s">
+    <row r="454" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M454" s="24" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="442" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J442" s="24" t="s">
+    <row r="455" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M455" s="24" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="443" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J443" s="24" t="s">
+    <row r="456" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M456" s="24" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="444" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J444" s="24" t="s">
+    <row r="457" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M457" s="24" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="445" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J445" s="24" t="s">
+    <row r="458" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M458" s="24" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="446" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J446" s="24" t="s">
+    <row r="459" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M459" s="24" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="447" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J447" s="24" t="s">
+    <row r="460" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M460" s="24" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="448" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J448" s="24" t="s">
+    <row r="461" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M461" s="24" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="449" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J449" s="24" t="s">
+    <row r="462" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M462" s="24" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="450" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J450" s="24" t="s">
+    <row r="463" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M463" s="24" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="451" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J451" s="24" t="s">
+    <row r="464" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M464" s="24" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="452" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J452" s="24" t="s">
+    <row r="465" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M465" s="24" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="453" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J453" s="24" t="s">
+    <row r="466" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M466" s="24" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="454" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J454" s="24" t="s">
+    <row r="467" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M467" s="24" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="455" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J455" s="24" t="s">
+    <row r="468" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M468" s="24" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="456" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J456" s="24" t="s">
+    <row r="469" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M469" s="24" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="457" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J457" s="24" t="s">
+    <row r="470" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M470" s="24" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="458" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J458" s="24" t="s">
+    <row r="471" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M471" s="24" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="459" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J459" s="24" t="s">
+    <row r="472" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M472" s="24" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="460" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J460" s="24" t="s">
+    <row r="473" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M473" s="24" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="461" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J461" s="24" t="s">
+    <row r="474" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M474" s="24" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="462" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J462" s="24" t="s">
+    <row r="475" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M475" s="24" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="463" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J463" s="24" t="s">
+    <row r="476" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M476" s="24" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="464" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J464" s="24" t="s">
+    <row r="477" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M477" s="24" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="465" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J465" s="24" t="s">
+    <row r="478" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M478" s="24" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="466" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J466" s="24" t="s">
+    <row r="479" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M479" s="24" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="467" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J467" s="24" t="s">
+    <row r="480" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M480" s="24" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="468" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J468" s="24" t="s">
+    <row r="481" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M481" s="24" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="469" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J469" s="24" t="s">
+    <row r="482" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M482" s="24" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="470" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J470" s="24" t="s">
+    <row r="483" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M483" s="24" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="471" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J471" s="24" t="s">
+    <row r="484" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M484" s="24" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="472" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J472" s="24" t="s">
+    <row r="485" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M485" s="24" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="473" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J473" s="24" t="s">
+    <row r="486" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M486" s="24" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="474" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J474" s="24" t="s">
+    <row r="487" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M487" s="24" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="475" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J475" s="24" t="s">
+    <row r="488" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M488" s="24" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="476" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J476" s="24" t="s">
+    <row r="489" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M489" s="24" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="477" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J477" s="24" t="s">
+    <row r="490" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M490" s="24" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="478" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J478" s="24" t="s">
+    <row r="491" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M491" s="24" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="479" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J479" s="24" t="s">
+    <row r="492" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M492" s="24" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="480" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J480" s="24" t="s">
+    <row r="493" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M493" s="24" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="481" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J481" s="24" t="s">
+    <row r="494" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M494" s="24" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="482" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J482" s="24" t="s">
+    <row r="495" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M495" s="24" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="483" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J483" s="24" t="s">
+    <row r="496" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M496" s="24" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="484" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J484" s="24" t="s">
+    <row r="497" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M497" s="24" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="485" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J485" s="24" t="s">
+    <row r="498" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M498" s="24" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="486" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J486" s="24" t="s">
+    <row r="499" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M499" s="24" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="487" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J487" s="24" t="s">
+    <row r="500" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M500" s="24" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="488" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J488" s="24" t="s">
+    <row r="501" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M501" s="24" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="489" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J489" s="24" t="s">
+    <row r="502" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M502" s="24" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="490" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J490" s="24" t="s">
+    <row r="503" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M503" s="24" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="491" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J491" s="24" t="s">
+    <row r="504" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M504" s="24" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="492" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J492" s="24" t="s">
+    <row r="505" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M505" s="24" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="493" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J493" s="24" t="s">
+    <row r="506" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M506" s="24" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="494" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J494" s="24" t="s">
+    <row r="507" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M507" s="24" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="495" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J495" s="24" t="s">
+    <row r="508" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M508" s="24" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="496" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J496" s="24" t="s">
+    <row r="509" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M509" s="24" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="497" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J497" s="24" t="s">
+    <row r="510" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M510" s="24" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="498" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J498" s="24" t="s">
+    <row r="511" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M511" s="24" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="499" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J499" s="24" t="s">
+    <row r="512" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M512" s="24" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="500" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J500" s="24" t="s">
+    <row r="513" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M513" s="24" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="501" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J501" s="24" t="s">
+    <row r="514" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M514" s="24" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="502" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J502" s="24" t="s">
+    <row r="515" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M515" s="24" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="503" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J503" s="24" t="s">
+    <row r="516" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M516" s="24" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="504" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J504" s="24" t="s">
+    <row r="517" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M517" s="24" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="505" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J505" s="24" t="s">
+    <row r="518" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M518" s="24" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="506" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J506" s="24" t="s">
+    <row r="519" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M519" s="24" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="507" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J507" s="24" t="s">
+    <row r="520" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M520" s="24" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="508" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J508" s="24" t="s">
+    <row r="521" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M521" s="24" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="509" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J509" s="24" t="s">
+    <row r="522" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M522" s="24" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="510" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J510" s="24" t="s">
+    <row r="523" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M523" s="24" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="511" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J511" s="24" t="s">
+    <row r="524" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M524" s="24" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="512" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J512" s="24" t="s">
+    <row r="525" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M525" s="24" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="513" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J513" s="24" t="s">
+    <row r="526" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M526" s="24" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="514" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J514" s="24" t="s">
+    <row r="527" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M527" s="24" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="515" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J515" s="24" t="s">
+    <row r="528" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M528" s="24" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="516" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J516" s="24" t="s">
+    <row r="529" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M529" s="24" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="517" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J517" s="24" t="s">
+    <row r="530" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M530" s="24" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="518" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J518" s="24" t="s">
+    <row r="531" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M531" s="24" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="519" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J519" s="24" t="s">
+    <row r="532" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M532" s="24" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="520" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J520" s="24" t="s">
+    <row r="533" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M533" s="24" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="521" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J521" s="24" t="s">
+    <row r="534" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M534" s="24" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="522" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J522" s="24" t="s">
+    <row r="535" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M535" s="24" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="523" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J523" s="24" t="s">
+    <row r="536" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M536" s="24" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="524" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J524" s="24" t="s">
+    <row r="537" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M537" s="24" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="525" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J525" s="24" t="s">
+    <row r="538" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M538" s="24" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="526" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J526" s="24" t="s">
+    <row r="539" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M539" s="24" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="527" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J527" s="24" t="s">
+    <row r="540" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M540" s="24" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="528" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J528" s="24" t="s">
+    <row r="541" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M541" s="24" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="529" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J529" s="24" t="s">
+    <row r="542" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M542" s="24" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="530" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J530" s="24" t="s">
+    <row r="543" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M543" s="24" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="531" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J531" s="24" t="s">
+    <row r="544" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M544" s="24" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="532" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J532" s="24" t="s">
+    <row r="545" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M545" s="24" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="533" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J533" s="24" t="s">
+    <row r="546" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M546" s="24" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="534" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J534" s="24" t="s">
+    <row r="547" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M547" s="24" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="535" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J535" s="24" t="s">
+    <row r="548" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M548" s="24" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="536" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J536" s="24" t="s">
+    <row r="549" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M549" s="24" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="537" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J537" s="24" t="s">
+    <row r="550" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M550" s="24" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="538" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J538" s="24" t="s">
+    <row r="551" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M551" s="24" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="539" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J539" s="24" t="s">
+    <row r="552" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M552" s="24" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="540" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J540" s="24" t="s">
+    <row r="553" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M553" s="24" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="541" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J541" s="24" t="s">
+    <row r="554" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M554" s="24" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="542" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J542" s="24" t="s">
+    <row r="555" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M555" s="24" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="543" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J543" s="24" t="s">
+    <row r="556" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M556" s="24" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="544" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J544" s="24" t="s">
+    <row r="557" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M557" s="24" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="545" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J545" s="24" t="s">
+    <row r="558" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M558" s="24" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="546" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J546" s="24" t="s">
+    <row r="559" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M559" s="24" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="547" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J547" s="24" t="s">
+    <row r="560" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M560" s="24" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="548" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J548" s="24" t="s">
+    <row r="561" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M561" s="24" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="549" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J549" s="24" t="s">
+    <row r="562" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M562" s="24" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="550" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J550" s="24" t="s">
+    <row r="563" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M563" s="24" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="551" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J551" s="24" t="s">
+    <row r="564" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M564" s="24" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="552" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J552" s="24" t="s">
+    <row r="565" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M565" s="24" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="553" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J553" s="24" t="s">
+    <row r="566" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M566" s="24" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="554" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J554" s="24" t="s">
+    <row r="567" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M567" s="24" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="555" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J555" s="24" t="s">
+    <row r="568" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M568" s="24" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="556" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J556" s="24" t="s">
+    <row r="569" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M569" s="24" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="557" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J557" s="24" t="s">
+    <row r="570" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M570" s="24" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="558" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J558" s="24" t="s">
+    <row r="571" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M571" s="24" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="559" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J559" s="24" t="s">
+    <row r="572" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M572" s="24" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="560" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J560" s="24" t="s">
+    <row r="573" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M573" s="24" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="561" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J561" s="24" t="s">
+    <row r="574" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M574" s="24" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="562" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J562" s="24" t="s">
+    <row r="575" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M575" s="24" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="563" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J563" s="24" t="s">
+    <row r="576" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M576" s="24" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="564" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J564" s="24" t="s">
+    <row r="577" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M577" s="24" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="565" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J565" s="24" t="s">
+    <row r="578" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M578" s="24" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="566" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J566" s="24" t="s">
+    <row r="579" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M579" s="24" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="567" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J567" s="24" t="s">
+    <row r="580" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M580" s="24" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="568" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J568" s="24" t="s">
+    <row r="581" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M581" s="24" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="569" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J569" s="24" t="s">
+    <row r="582" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M582" s="24" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="570" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J570" s="24" t="s">
+    <row r="583" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M583" s="24" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="571" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J571" s="24" t="s">
+    <row r="584" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M584" s="24" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="572" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J572" s="24" t="s">
+    <row r="585" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M585" s="24" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="573" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J573" s="24" t="s">
+    <row r="586" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M586" s="24" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="574" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J574" s="24" t="s">
+    <row r="587" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M587" s="24" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="575" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J575" s="24" t="s">
+    <row r="588" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M588" s="24" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="576" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J576" s="24" t="s">
+    <row r="589" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M589" s="24" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="577" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J577" s="24" t="s">
+    <row r="590" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M590" s="24" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="578" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J578" s="24" t="s">
+    <row r="591" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M591" s="24" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="579" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J579" s="24" t="s">
+    <row r="592" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M592" s="24" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="580" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J580" s="24" t="s">
+    <row r="593" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M593" s="24" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="581" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J581" s="24" t="s">
+    <row r="594" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M594" s="24" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="582" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J582" s="24" t="s">
+    <row r="595" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M595" s="24" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="583" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J583" s="24" t="s">
+    <row r="596" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M596" s="24" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="584" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J584" s="24" t="s">
+    <row r="597" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M597" s="24" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="585" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J585" s="24" t="s">
+    <row r="598" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M598" s="24" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="586" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J586" s="24" t="s">
+    <row r="599" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M599" s="24" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="587" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J587" s="24" t="s">
+    <row r="600" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M600" s="24" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="588" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J588" s="24" t="s">
+    <row r="601" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M601" s="24" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="589" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J589" s="24" t="s">
+    <row r="602" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M602" s="24" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="590" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J590" s="24" t="s">
+    <row r="603" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M603" s="24" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="591" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J591" s="24" t="s">
+    <row r="604" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M604" s="24" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="592" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J592" s="24" t="s">
+    <row r="605" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M605" s="24" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="593" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J593" s="24" t="s">
+    <row r="606" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M606" s="24" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="594" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J594" s="24" t="s">
+    <row r="607" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M607" s="24" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="595" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J595" s="24" t="s">
+    <row r="608" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M608" s="24" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="596" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J596" s="24" t="s">
+    <row r="609" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M609" s="24" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="597" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J597" s="24" t="s">
+    <row r="610" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M610" s="24" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="598" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J598" s="24" t="s">
+    <row r="611" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M611" s="24" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="599" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J599" s="24" t="s">
+    <row r="612" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M612" s="24" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="600" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J600" s="24" t="s">
+    <row r="613" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M613" s="24" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="601" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J601" s="24" t="s">
+    <row r="614" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M614" s="24" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="602" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J602" s="24" t="s">
+    <row r="615" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M615" s="24" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="603" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J603" s="24" t="s">
+    <row r="616" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M616" s="24" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="604" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J604" s="24" t="s">
+    <row r="617" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M617" s="24" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="605" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J605" s="24" t="s">
+    <row r="618" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M618" s="24" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="606" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J606" s="24" t="s">
+    <row r="619" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M619" s="24" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="607" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J607" s="24" t="s">
+    <row r="620" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M620" s="24" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="608" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J608" s="24" t="s">
+    <row r="621" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M621" s="24" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="609" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J609" s="24" t="s">
+    <row r="622" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M622" s="24" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="610" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J610" s="24" t="s">
+    <row r="623" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M623" s="24" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="611" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J611" s="24" t="s">
+    <row r="624" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M624" s="24" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="612" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J612" s="24" t="s">
+    <row r="625" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="M625" s="24" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="613" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J613" s="24" t="s">
+    <row r="626" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="M626" s="24" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="614" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J614" s="24" t="s">
+    <row r="627" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="M627" s="24" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="615" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J615" s="24" t="s">
+    <row r="628" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="M628" s="24" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="616" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J616" s="24" t="s">
+    <row r="629" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J629" s="24"/>
+      <c r="M629" s="24" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="617" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J617" s="24" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="618" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J618" s="24" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="619" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J619" s="24" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="620" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J620" s="24" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="621" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J621" s="24" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="622" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J622" s="24" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="623" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J623" s="24" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="624" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J624" s="24" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="625" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J625" s="24" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="626" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J626" s="24" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="627" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J627" s="24" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="628" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J628" s="24" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="629" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J629" s="24"/>
-    </row>
-    <row r="630" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J630" s="24" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="631" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="M630" s="24" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="631" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J631" s="24" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="632" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="M631" s="24" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="632" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J632" s="24" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="633" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="M632" s="24" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="633" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J633" s="24" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="634" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="M633" s="24" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="634" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J634" s="24" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="635" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="M634" s="24" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="635" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J635" s="24" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="636" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="M635" s="24" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="636" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J636" s="24" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="637" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="M636" s="24" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="637" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J637" s="24" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="638" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="M637" s="24" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="638" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J638" s="24" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="639" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="M638" s="24" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="639" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J639" s="24" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="640" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="M639" s="24" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="640" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J640" s="24" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="641" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="M640" s="24" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="641" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J641" s="24" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="642" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="M641" s="24" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="642" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J642" s="24" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="643" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J643" s="24" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="644" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J644" s="24" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="645" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J645" s="24" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="646" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J646" s="24" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="647" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J647" s="24" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="648" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J648" s="24" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="649" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J649" s="24" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="650" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J650" s="24" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="651" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J651" s="24" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="652" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J652" s="24" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="653" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J653" s="24" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="654" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J654" s="24" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="655" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J655" s="24" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="656" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J656" s="24" t="s">
         <v>777</v>
       </c>
@@ -73642,7 +73841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688CC1CF-8A91-480C-B583-141879109D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D32C8E7-547A-47E8-98C0-867BE253B62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8954" uniqueCount="8923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8955" uniqueCount="8924">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -26859,6 +26859,9 @@
   </si>
   <si>
     <t>H24</t>
+  </si>
+  <si>
+    <t>P3</t>
   </si>
 </sst>
 </file>
@@ -29340,7 +29343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:T8765"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -73456,10 +73459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:D53"/>
+  <dimension ref="B3:I53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73471,182 +73474,207 @@
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8887</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="15" t="s">
         <v>8887</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="15" t="s">
+        <v>8923</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="18">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="18">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="18">
+        <v>9</v>
+      </c>
+      <c r="I15">
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <v>10</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="18">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>2030</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <v>10</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="18">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="18">
+        <v>7</v>
+      </c>
+      <c r="I17">
         <v>2040</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="18">
+        <v>4</v>
+      </c>
+      <c r="I18">
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
-      <c r="C19">
+      <c r="C19" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
-      <c r="C20">
+      <c r="C20" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
-      <c r="C21">
+      <c r="C21" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22">
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C26">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C27">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C28">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C29">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C30">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C32">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33">
+      <c r="C33" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34">
+      <c r="C34" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35">
+      <c r="C35" s="18">
         <v>1</v>
       </c>
     </row>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D32C8E7-547A-47E8-98C0-867BE253B62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C114524B-C35D-49F5-A545-4B39F3024734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73459,10 +73459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:I53"/>
+  <dimension ref="B3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73474,35 +73474,35 @@
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8887</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>68</v>
       </c>
@@ -73513,7 +73513,7 @@
         <v>8923</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <v>1</v>
       </c>
@@ -73526,8 +73526,11 @@
       <c r="I14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <v>5</v>
       </c>
@@ -73541,7 +73544,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <v>10</v>
       </c>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C114524B-C35D-49F5-A545-4B39F3024734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF12202-5046-44CC-9BB5-EA4D22BD4ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -29341,10 +29341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:T8765"/>
+  <dimension ref="B3:M8765"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29356,7 +29356,7 @@
     <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -29366,7 +29366,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>39</v>
       </c>
@@ -29400,7 +29400,7 @@
         <v>8899</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H6" s="12" t="s">
         <v>8889</v>
       </c>
@@ -29411,7 +29411,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H7" s="12" t="s">
         <v>8890</v>
       </c>
@@ -29422,7 +29422,7 @@
         <v>8901</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H8" s="12" t="s">
         <v>8891</v>
       </c>
@@ -29433,8 +29433,10 @@
         <v>8902</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H9" s="12"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="I9" s="12" t="s">
         <v>8896</v>
       </c>
@@ -29442,465 +29444,462 @@
         <v>8903</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="I10" s="12" t="s">
         <v>8897</v>
       </c>
       <c r="J10" t="s">
         <v>8904</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="I11" s="12" t="s">
         <v>8898</v>
       </c>
       <c r="J11" t="s">
         <v>8905</v>
       </c>
-      <c r="T11" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="J12" t="s">
         <v>8906</v>
       </c>
-      <c r="T12" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="J13" t="s">
         <v>8907</v>
       </c>
-      <c r="T13" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="J14" t="s">
         <v>8908</v>
       </c>
-      <c r="T14" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="J15" t="s">
         <v>8909</v>
       </c>
-      <c r="T15" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="J16" t="s">
         <v>8910</v>
       </c>
-      <c r="T16" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H17" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="J17" t="s">
         <v>8911</v>
       </c>
-      <c r="T17" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H18" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="J18" t="s">
         <v>8912</v>
       </c>
       <c r="M18" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="T18" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H19" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="J19" t="s">
         <v>8913</v>
       </c>
       <c r="M19" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="T19" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H20" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="J20" t="s">
         <v>8914</v>
       </c>
       <c r="M20" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="T20" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H21" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="J21" t="s">
         <v>8915</v>
       </c>
       <c r="M21" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="T21" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H22" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="J22" t="s">
         <v>8916</v>
       </c>
       <c r="M22" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="T22" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="J23" t="s">
         <v>8917</v>
       </c>
       <c r="M23" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="T23" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H24" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="J24" t="s">
         <v>8918</v>
       </c>
       <c r="M24" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="T24" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H25" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="J25" t="s">
         <v>8919</v>
       </c>
       <c r="M25" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="T25" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H26" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="J26" t="s">
         <v>8920</v>
       </c>
       <c r="M26" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="T26" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H27" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="J27" t="s">
         <v>8921</v>
       </c>
       <c r="M27" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="T27" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H28" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="J28" t="s">
         <v>8922</v>
       </c>
       <c r="M28" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="T28" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H29" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="M29" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="T29" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H30" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="M30" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="T30" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H31" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="M31" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="T31" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="10:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H32" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="M32" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="T32" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H33" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="M33" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="T33" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H34" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="M34" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="T34" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H35" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="M35" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="T35" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H36" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="M36" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="T36" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="M37" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="T37" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H38" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="M38" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="T38" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H39" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="M39" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="T39" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H40" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="M40" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="T40" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H41" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="M41" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="T41" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H42" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="M42" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="T42" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H43" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="M43" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="T43" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H44" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="M44" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="T44" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H45" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="M45" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="T45" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H46" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="M46" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="T46" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H47" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="M47" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="T47" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="13:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H48" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="M48" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="T48" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="8:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H49" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="M49" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="T49" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="8:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H50" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="M50" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="T50" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="8:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H51" s="12" t="s">
+        <v>119</v>
+      </c>
       <c r="M51" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="T51" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="8:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H52" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="M52" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="T52" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="8:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H53" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="M53" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="T53" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="8:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H54" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="M54" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="T54" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="8:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H55" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="M55" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="T55" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="8:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H56" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="M56" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="T56" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="8:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H57" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="M57" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="T57" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="8:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M58" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="T58" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="8:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H59" s="10"/>
       <c r="M59" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="8:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H60" s="10"/>
       <c r="M60" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="8:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M61" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="8:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M62" s="24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="8:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M63" s="24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="8:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M64" s="24" t="s">
         <v>172</v>
       </c>
@@ -73461,7 +73460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF12202-5046-44CC-9BB5-EA4D22BD4ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E4A2F8-6E2F-409F-B7B8-EA499604EA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29344,7 +29344,7 @@
   <dimension ref="B3:M8765"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H57"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E4A2F8-6E2F-409F-B7B8-EA499604EA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3A6531-C4DD-44A8-A8F3-F8B7BBF040B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8955" uniqueCount="8924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8956" uniqueCount="8925">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -26862,6 +26862,9 @@
   </si>
   <si>
     <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
   </si>
 </sst>
 </file>
@@ -29343,7 +29346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M8765"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -73460,8 +73463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -73511,6 +73514,9 @@
       <c r="D13" s="15" t="s">
         <v>8923</v>
       </c>
+      <c r="E13" s="15" t="s">
+        <v>8924</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
@@ -73522,6 +73528,9 @@
       <c r="D14" s="18">
         <v>1</v>
       </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
       <c r="I14">
         <v>2020</v>
       </c>
@@ -73539,6 +73548,9 @@
       <c r="D15" s="18">
         <v>9</v>
       </c>
+      <c r="E15" s="18">
+        <v>60</v>
+      </c>
       <c r="I15">
         <v>2023</v>
       </c>
@@ -73553,6 +73565,7 @@
       <c r="D16" s="18">
         <v>2</v>
       </c>
+      <c r="E16" s="18"/>
       <c r="I16">
         <v>2030</v>
       </c>
@@ -73567,6 +73580,7 @@
       <c r="D17" s="18">
         <v>7</v>
       </c>
+      <c r="E17" s="18"/>
       <c r="I17">
         <v>2040</v>
       </c>
@@ -73581,6 +73595,7 @@
       <c r="D18" s="18">
         <v>4</v>
       </c>
+      <c r="E18" s="18"/>
       <c r="I18">
         <v>2050</v>
       </c>
@@ -73593,6 +73608,7 @@
       <c r="D19" s="18">
         <v>5</v>
       </c>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
@@ -73602,6 +73618,7 @@
       <c r="D20" s="18">
         <v>5</v>
       </c>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
@@ -73609,6 +73626,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="18">

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3A6531-C4DD-44A8-A8F3-F8B7BBF040B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A8328-A385-49FB-A535-A00AB19C8366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -29346,7 +29346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M8765"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -73463,8 +73463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
